--- a/doc/user-guide/cookbook/resource/resource-skills.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-skills.xlsx
@@ -5,37 +5,36 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="323" yWindow="585" windowWidth="20798" windowHeight="5243" tabRatio="852" activeTab="8"/>
+    <workbookView xWindow="323" yWindow="585" windowWidth="20798" windowHeight="5243" tabRatio="852"/>
   </bookViews>
   <sheets>
-    <sheet name="itemoperation" sheetId="20" r:id="rId1"/>
-    <sheet name="buffer" sheetId="1" r:id="rId2"/>
-    <sheet name="calendar bucket" sheetId="2" r:id="rId3"/>
-    <sheet name="calendar" sheetId="3" r:id="rId4"/>
-    <sheet name="customer" sheetId="4" r:id="rId5"/>
-    <sheet name="demand" sheetId="5" r:id="rId6"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId7"/>
-    <sheet name="item" sheetId="7" r:id="rId8"/>
-    <sheet name="operationresource" sheetId="8" r:id="rId9"/>
-    <sheet name="location" sheetId="9" r:id="rId10"/>
-    <sheet name="operation" sheetId="11" r:id="rId11"/>
-    <sheet name="resource skill" sheetId="12" r:id="rId12"/>
-    <sheet name="resource" sheetId="13" r:id="rId13"/>
-    <sheet name="skill" sheetId="15" r:id="rId14"/>
-    <sheet name="bucket date" sheetId="17" r:id="rId15"/>
-    <sheet name="bucket" sheetId="18" r:id="rId16"/>
-    <sheet name="parameter" sheetId="19" r:id="rId17"/>
+    <sheet name="buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="calendar bucket" sheetId="2" r:id="rId2"/>
+    <sheet name="calendar" sheetId="3" r:id="rId3"/>
+    <sheet name="customer" sheetId="4" r:id="rId4"/>
+    <sheet name="demand" sheetId="5" r:id="rId5"/>
+    <sheet name="operationmaterial" sheetId="6" r:id="rId6"/>
+    <sheet name="item" sheetId="7" r:id="rId7"/>
+    <sheet name="operationresource" sheetId="8" r:id="rId8"/>
+    <sheet name="location" sheetId="9" r:id="rId9"/>
+    <sheet name="operation" sheetId="11" r:id="rId10"/>
+    <sheet name="resource skill" sheetId="12" r:id="rId11"/>
+    <sheet name="resource" sheetId="13" r:id="rId12"/>
+    <sheet name="skill" sheetId="15" r:id="rId13"/>
+    <sheet name="bucket date" sheetId="17" r:id="rId14"/>
+    <sheet name="bucket" sheetId="18" r:id="rId15"/>
+    <sheet name="parameter" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="309">
   <si>
     <t>name</t>
   </si>
@@ -1304,104 +1303,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1411,41 +1435,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1455,9 +1448,10 @@
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,8 +1467,11 @@
       <c r="E1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1487,8 +1484,11 @@
       <c r="E2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1501,8 +1501,11 @@
       <c r="E3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1515,8 +1518,11 @@
       <c r="E4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1529,8 +1535,11 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1543,8 +1552,11 @@
       <c r="D6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1557,8 +1569,11 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1571,8 +1586,11 @@
       <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>295</v>
       </c>
@@ -1588,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1832,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -2040,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -2095,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
@@ -3583,7 +3601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3667,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3733,138 +3751,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="4" max="4" width="18.53125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3971,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4005,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -4030,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -4210,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4439,7 +4325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -4504,11 +4390,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4734,4 +4620,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/user-guide/cookbook/resource/resource-skills.xlsx
+++ b/doc/user-guide/cookbook/resource/resource-skills.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D90676-AD87-41B0-92B6-04B9B7560497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="323" yWindow="585" windowWidth="20798" windowHeight="5243" tabRatio="852" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -311,33 +312,12 @@
   </si>
   <si>
     <t>MINCOSTPENALTY</t>
-  </si>
-  <si>
-    <t>CD1-08-004 @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 (1)a @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 (5)a @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 5(b) @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 5(c) @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 d @ NMI</t>
-  </si>
-  <si>
-    <t>CD1-08-004 e @ NMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,6 +443,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -498,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,129 +687,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="4" max="4" width="18.53125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -805,24 +794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -859,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -876,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -893,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -910,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -927,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -944,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -961,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -978,19 +967,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1007,7 +996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1018,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1029,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1040,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1051,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1062,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1073,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1084,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1095,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1106,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1128,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1139,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1150,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1161,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1172,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1194,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1205,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1222,22 +1211,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,12 +1243,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1276,7 +1265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1293,7 +1282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1310,7 +1299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1327,7 +1316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1344,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1358,7 +1347,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1369,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1380,7 +1369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1402,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1413,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1430,51 +1419,51 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1485,21 +1474,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1521,7 +1510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1532,7 +1521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1549,21 +1538,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1607,7 +1596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1657,19 +1646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1691,21 +1680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1716,21 +1705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +1783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1826,7 +1815,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1858,7 +1847,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1896,20 +1885,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1923,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +1926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1951,7 +1940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +1954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2007,7 +1996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2035,7 +2024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2077,7 +2066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2125,20 +2114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2154,32 +2143,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2190,20 +2179,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +2209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2231,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2237,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2259,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2287,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2371,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2422,16 +2411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
